--- a/Benchmarks-results/całka wykresy/całka - zmienny GWS 2 GPU.xlsx
+++ b/Benchmarks-results/całka wykresy/całka - zmienny GWS 2 GPU.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>GWS</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>2x GPU     | range 0-66536   |  dx = 0,0001</t>
+  </si>
+  <si>
+    <t>całkowite zużycie energii: [W] (2 x GPU)</t>
   </si>
 </sst>
 </file>
@@ -274,25 +277,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56501760"/>
-        <c:axId val="56533760"/>
+        <c:axId val="121712000"/>
+        <c:axId val="122090624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56501760"/>
+        <c:axId val="121712000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56533760"/>
+        <c:crossAx val="122090624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56533760"/>
+        <c:axId val="122090624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,7 +303,3578 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56501760"/>
+        <c:crossAx val="121712000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>całkowite zużycie energii: [W] (2 x GPU)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$31:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$31:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="122143872"/>
+        <c:axId val="122145408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="122143872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122145408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122145408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122143872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Power GPU 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$58:$D$192</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>0.83811342592592597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8381249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83813657407407405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8381481481481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83815972222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83817129629629628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83818287037037031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83820601851851861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83821759259259254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83822916666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83824074074074073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83825231481481488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83826388888888881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83827546296296296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83828703703703711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83829861111111115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83831018518518519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83832175925925922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8383449074074073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83835648148148145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8383680555555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83837962962962964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83839120370370368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83840277777777772</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83841435185185187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83842592592592602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83843749999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8384490740740741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83846064814814814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83847222222222229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83848379629629621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83849537037037036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83850694444444451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83853009259259259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83854166666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83855324074074078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83856481481481471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83857638888888886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83858796296296301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83859953703703705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83861111111111108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83862268518518512</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83863425925925927</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83864583333333342</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83865740740740735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8386689814814815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83868055555555554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83869212962962969</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83870370370370362</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83871527777777777</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83872685185185192</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83873842592592596</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83876157407407403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83877314814814818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83878472222222211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83879629629629626</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83880787037037041</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83881944444444445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83883101851851849</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83884259259259253</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83885416666666668</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83886574074074083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.83887731481481476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83890046296296295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83891203703703709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.83892361111111102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83893518518518517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83894675925925932</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8389699074074074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83898148148148144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83899305555555559</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83900462962962974</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83901620370370367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83902777777777782</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83903935185185186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83905092592592589</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83906249999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83907407407407408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83908564814814823</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83909722222222216</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83910879629629631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83912037037037035</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8391319444444445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.83914351851851843</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83915509259259258</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.83916666666666673</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.83917824074074077</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.83918981481481481</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83920138888888884</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83921296296296299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83922453703703714</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83923611111111107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.83924768518518522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8392708333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83928240740740734</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83929398148148149</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83930555555555564</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83931712962962957</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83932870370370372</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83934027777777775</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83936342592592583</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83938657407407413</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83939814814814817</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83940972222222221</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83942129629629625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8394328703703704</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83944444444444455</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83945601851851848</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83946759259259263</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8394907407407407</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83952546296296304</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.83953703703703697</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83954861111111112</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83956018518518516</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83957175925925931</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.83959490740740739</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.83960648148148154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83961805555555558</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83962962962962961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83964120370370365</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.8396527777777778</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83966435185185195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83967592592592588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$58:$F$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Power GPU 2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$58:$D$192</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>0.83811342592592597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8381249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83813657407407405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8381481481481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83815972222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83817129629629628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83818287037037031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83820601851851861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83821759259259254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83822916666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83824074074074073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83825231481481488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83826388888888881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83827546296296296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83828703703703711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83829861111111115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83831018518518519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83832175925925922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8383449074074073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83835648148148145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8383680555555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83837962962962964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83839120370370368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83840277777777772</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83841435185185187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83842592592592602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83843749999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8384490740740741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83846064814814814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83847222222222229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83848379629629621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83849537037037036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83850694444444451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83853009259259259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83854166666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83855324074074078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83856481481481471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83857638888888886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83858796296296301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83859953703703705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83861111111111108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83862268518518512</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83863425925925927</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83864583333333342</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83865740740740735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8386689814814815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83868055555555554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83869212962962969</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83870370370370362</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83871527777777777</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83872685185185192</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83873842592592596</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83876157407407403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83877314814814818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83878472222222211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83879629629629626</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83880787037037041</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83881944444444445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83883101851851849</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83884259259259253</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83885416666666668</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83886574074074083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.83887731481481476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83890046296296295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83891203703703709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.83892361111111102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83893518518518517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83894675925925932</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8389699074074074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83898148148148144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83899305555555559</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83900462962962974</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83901620370370367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83902777777777782</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83903935185185186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83905092592592589</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83906249999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83907407407407408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83908564814814823</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83909722222222216</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83910879629629631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83912037037037035</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8391319444444445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.83914351851851843</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83915509259259258</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.83916666666666673</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.83917824074074077</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.83918981481481481</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83920138888888884</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83921296296296299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83922453703703714</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83923611111111107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.83924768518518522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8392708333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83928240740740734</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83929398148148149</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83930555555555564</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83931712962962957</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83932870370370372</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83934027777777775</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83936342592592583</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83938657407407413</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83939814814814817</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83940972222222221</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83942129629629625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8394328703703704</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83944444444444455</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83945601851851848</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83946759259259263</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8394907407407407</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83952546296296304</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.83953703703703697</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83954861111111112</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83956018518518516</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83957175925925931</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.83959490740740739</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.83960648148148154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83961805555555558</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83962962962962961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83964120370370365</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.8396527777777778</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83966435185185195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83967592592592588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$58:$J$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Temp GPU 1</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$58:$D$192</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>0.83811342592592597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8381249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83813657407407405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8381481481481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83815972222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83817129629629628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83818287037037031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83820601851851861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83821759259259254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83822916666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83824074074074073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83825231481481488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83826388888888881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83827546296296296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83828703703703711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83829861111111115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83831018518518519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83832175925925922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8383449074074073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83835648148148145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8383680555555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83837962962962964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83839120370370368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83840277777777772</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83841435185185187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83842592592592602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83843749999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8384490740740741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83846064814814814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83847222222222229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83848379629629621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83849537037037036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83850694444444451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83853009259259259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83854166666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83855324074074078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83856481481481471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83857638888888886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83858796296296301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83859953703703705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83861111111111108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83862268518518512</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83863425925925927</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83864583333333342</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83865740740740735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8386689814814815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83868055555555554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83869212962962969</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83870370370370362</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83871527777777777</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83872685185185192</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83873842592592596</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83876157407407403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83877314814814818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83878472222222211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83879629629629626</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83880787037037041</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83881944444444445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83883101851851849</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83884259259259253</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83885416666666668</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83886574074074083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.83887731481481476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83890046296296295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83891203703703709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.83892361111111102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83893518518518517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83894675925925932</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8389699074074074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83898148148148144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83899305555555559</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83900462962962974</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83901620370370367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83902777777777782</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83903935185185186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83905092592592589</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83906249999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83907407407407408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83908564814814823</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83909722222222216</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83910879629629631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83912037037037035</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8391319444444445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.83914351851851843</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83915509259259258</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.83916666666666673</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.83917824074074077</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.83918981481481481</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83920138888888884</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83921296296296299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83922453703703714</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83923611111111107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.83924768518518522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8392708333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83928240740740734</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83929398148148149</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83930555555555564</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83931712962962957</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83932870370370372</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83934027777777775</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83936342592592583</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83938657407407413</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83939814814814817</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83940972222222221</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83942129629629625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8394328703703704</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83944444444444455</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83945601851851848</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83946759259259263</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8394907407407407</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83952546296296304</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.83953703703703697</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83954861111111112</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83956018518518516</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83957175925925931</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.83959490740740739</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.83960648148148154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83961805555555558</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83962962962962961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83964120370370365</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.8396527777777778</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83966435185185195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83967592592592588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$58:$G$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Temp GPU 2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$58:$D$192</c:f>
+              <c:numCache>
+                <c:formatCode>hh:mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>0.83811342592592597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8381249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83813657407407405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8381481481481482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83815972222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83817129629629628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83818287037037031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83819444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83820601851851861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83821759259259254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83822916666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83824074074074073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83825231481481488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83826388888888881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83827546296296296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83828703703703711</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83829861111111115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83831018518518519</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83832175925925922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8383449074074073</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83835648148148145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8383680555555556</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.83837962962962964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83839120370370368</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83840277777777772</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83841435185185187</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83842592592592602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83843749999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8384490740740741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83846064814814814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83847222222222229</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83848379629629621</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83849537037037036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83850694444444451</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.83851851851851855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83853009259259259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83854166666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.83855324074074078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83856481481481471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.83857638888888886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83858796296296301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.83859953703703705</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.83861111111111108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83862268518518512</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83863425925925927</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.83864583333333342</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83865740740740735</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8386689814814815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.83868055555555554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83869212962962969</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83870370370370362</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83871527777777777</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83872685185185192</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83873842592592596</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83876157407407403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83877314814814818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83878472222222211</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.83879629629629626</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.83880787037037041</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.83881944444444445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.83883101851851849</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.83884259259259253</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83885416666666668</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.83886574074074083</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.83887731481481476</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.83888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.83890046296296295</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.83891203703703709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.83892361111111102</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.83893518518518517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83894675925925932</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.83895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8389699074074074</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83898148148148144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83899305555555559</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.83900462962962974</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83901620370370367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83902777777777782</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83903935185185186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83905092592592589</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83906249999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83907407407407408</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83908564814814823</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.83909722222222216</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.83910879629629631</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83912037037037035</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8391319444444445</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.83914351851851843</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83915509259259258</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.83916666666666673</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.83917824074074077</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.83918981481481481</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.83920138888888884</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83921296296296299</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83922453703703714</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83923611111111107</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.83924768518518522</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8392708333333333</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.83928240740740734</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.83929398148148149</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.83930555555555564</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.83931712962962957</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.83932870370370372</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83934027777777775</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.8393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83936342592592583</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83937499999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83938657407407413</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83939814814814817</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83940972222222221</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.83942129629629625</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.8394328703703704</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.83944444444444455</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.83945601851851848</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.83946759259259263</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83947916666666667</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8394907407407407</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.83951388888888889</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.83952546296296304</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.83953703703703697</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.83954861111111112</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.83956018518518516</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.83957175925925931</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.83958333333333324</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.83959490740740739</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.83960648148148154</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.83961805555555558</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.83962962962962961</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83964120370370365</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.8396527777777778</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.83966435185185195</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.83967592592592588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$K$58:$K$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="88793088"/>
+        <c:axId val="88794624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="88793088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="hh:mm:ss" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88794624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88794624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88793088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -324,15 +3898,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -346,6 +3920,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2924174</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -639,10 +4273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CY274"/>
+  <dimension ref="B1:CY291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3508,7 +7142,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="17" spans="13:47">
+    <row r="17" spans="2:47">
       <c r="M17" s="2">
         <v>0.83818287037037031</v>
       </c>
@@ -3600,7 +7234,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="18" spans="13:47">
+    <row r="18" spans="2:47">
       <c r="M18" s="2">
         <v>0.83818287037037031</v>
       </c>
@@ -3692,7 +7326,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="19" spans="13:47">
+    <row r="19" spans="2:47">
       <c r="M19" s="2">
         <v>0.83819444444444446</v>
       </c>
@@ -3784,7 +7418,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="20" spans="13:47">
+    <row r="20" spans="2:47">
       <c r="M20" s="2">
         <v>0.83819444444444446</v>
       </c>
@@ -3876,7 +7510,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="21" spans="13:47">
+    <row r="21" spans="2:47">
       <c r="M21" s="2">
         <v>0.83820601851851861</v>
       </c>
@@ -3968,7 +7602,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="22" spans="13:47">
+    <row r="22" spans="2:47">
       <c r="M22" s="2">
         <v>0.83820601851851861</v>
       </c>
@@ -4042,7 +7676,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="23" spans="13:47">
+    <row r="23" spans="2:47">
       <c r="M23" s="2">
         <v>0.83821759259259254</v>
       </c>
@@ -4116,7 +7750,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="24" spans="13:47">
+    <row r="24" spans="2:47">
       <c r="M24" s="2">
         <v>0.83821759259259254</v>
       </c>
@@ -4190,7 +7824,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="25" spans="13:47">
+    <row r="25" spans="2:47">
       <c r="M25" s="2">
         <v>0.83822916666666669</v>
       </c>
@@ -4264,7 +7898,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="26" spans="13:47">
+    <row r="26" spans="2:47">
       <c r="M26" s="2">
         <v>0.83822916666666669</v>
       </c>
@@ -4338,7 +7972,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="27" spans="13:47">
+    <row r="27" spans="2:47">
       <c r="M27" s="2">
         <v>0.83824074074074073</v>
       </c>
@@ -4412,7 +8046,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="28" spans="13:47">
+    <row r="28" spans="2:47">
       <c r="M28" s="2">
         <v>0.83824074074074073</v>
       </c>
@@ -4486,7 +8120,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="29" spans="13:47">
+    <row r="29" spans="2:47">
       <c r="M29" s="2">
         <v>0.83825231481481488</v>
       </c>
@@ -4560,7 +8194,13 @@
         <v>928</v>
       </c>
     </row>
-    <row r="30" spans="13:47">
+    <row r="30" spans="2:47">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
       <c r="M30" s="2">
         <v>0.83825231481481488</v>
       </c>
@@ -4634,7 +8274,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="31" spans="13:47">
+    <row r="31" spans="2:47">
+      <c r="B31" s="1">
+        <v>536870912</v>
+      </c>
+      <c r="C31">
+        <f>SUM(O5:O274)</f>
+        <v>23991</v>
+      </c>
       <c r="M31" s="2">
         <v>0.83826388888888881</v>
       </c>
@@ -4708,7 +8355,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="32" spans="13:47">
+    <row r="32" spans="2:47">
+      <c r="B32" s="1">
+        <v>268435456</v>
+      </c>
+      <c r="C32">
+        <f>SUM(V4:V137)</f>
+        <v>12107</v>
+      </c>
       <c r="M32" s="2">
         <v>0.83826388888888881</v>
       </c>
@@ -4782,7 +8436,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="33" spans="13:40">
+    <row r="33" spans="2:40">
+      <c r="B33" s="1">
+        <v>134217728</v>
+      </c>
+      <c r="C33">
+        <f>SUM(AC4:AC83)</f>
+        <v>7180</v>
+      </c>
       <c r="M33" s="2">
         <v>0.83827546296296296</v>
       </c>
@@ -4856,7 +8517,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="34" spans="13:40">
+    <row r="34" spans="2:40">
+      <c r="B34" s="1">
+        <v>67108864</v>
+      </c>
+      <c r="C34">
+        <f>SUM(AK4:AK39)</f>
+        <v>3341</v>
+      </c>
       <c r="M34" s="2">
         <v>0.83827546296296296</v>
       </c>
@@ -4930,7 +8598,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="35" spans="13:40">
+    <row r="35" spans="2:40">
+      <c r="B35" s="1">
+        <v>33554432</v>
+      </c>
+      <c r="C35">
+        <f>SUM(AR4:AR21)</f>
+        <v>1739</v>
+      </c>
       <c r="M35" s="2">
         <v>0.83828703703703711</v>
       </c>
@@ -5004,7 +8679,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="36" spans="13:40">
+    <row r="36" spans="2:40">
+      <c r="B36" s="1">
+        <v>16777216</v>
+      </c>
+      <c r="C36">
+        <f>SUM(AZ4:AZ15)</f>
+        <v>1200</v>
+      </c>
       <c r="M36" s="2">
         <v>0.83828703703703711</v>
       </c>
@@ -5078,7 +8760,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="37" spans="13:40">
+    <row r="37" spans="2:40">
+      <c r="B37" s="1">
+        <v>8388608</v>
+      </c>
+      <c r="C37">
+        <f>SUM(BG4:BG15)</f>
+        <v>1194</v>
+      </c>
       <c r="M37" s="2">
         <v>0.83829861111111115</v>
       </c>
@@ -5152,7 +8841,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="38" spans="13:40">
+    <row r="38" spans="2:40">
+      <c r="B38" s="1">
+        <v>4194304</v>
+      </c>
+      <c r="C38">
+        <f>SUM(BO4:BO15)</f>
+        <v>1190</v>
+      </c>
       <c r="M38" s="2">
         <v>0.83829861111111115</v>
       </c>
@@ -5226,7 +8922,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="39" spans="13:40">
+    <row r="39" spans="2:40">
+      <c r="B39" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="C39">
+        <f>SUM(BV4:BV15)</f>
+        <v>1192</v>
+      </c>
       <c r="M39" s="2">
         <v>0.83831018518518519</v>
       </c>
@@ -5300,7 +9003,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="40" spans="13:40">
+    <row r="40" spans="2:40">
+      <c r="B40" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="C40">
+        <f>SUM(CE4:CE15)</f>
+        <v>1194</v>
+      </c>
       <c r="M40" s="2">
         <v>0.83831018518518519</v>
       </c>
@@ -5356,7 +9066,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="41" spans="13:40">
+    <row r="41" spans="2:40">
+      <c r="B41" s="1">
+        <v>524288</v>
+      </c>
+      <c r="C41">
+        <f>SUM(CM4:CM15)</f>
+        <v>1192</v>
+      </c>
       <c r="M41" s="2">
         <v>0.83832175925925922</v>
       </c>
@@ -5412,7 +9129,14 @@
         <v>928</v>
       </c>
     </row>
-    <row r="42" spans="13:40">
+    <row r="42" spans="2:40">
+      <c r="B42" s="1">
+        <v>262144</v>
+      </c>
+      <c r="C42">
+        <f>SUM(CV4:CV15)</f>
+        <v>1191</v>
+      </c>
       <c r="M42" s="2">
         <v>0.83832175925925922</v>
       </c>
@@ -5468,7 +9192,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="43" spans="13:40">
+    <row r="43" spans="2:40">
       <c r="M43" s="2">
         <v>0.83833333333333337</v>
       </c>
@@ -5524,7 +9248,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="13:40">
+    <row r="44" spans="2:40">
       <c r="M44" s="2">
         <v>0.83833333333333337</v>
       </c>
@@ -5580,7 +9304,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="45" spans="13:40">
+    <row r="45" spans="2:40">
       <c r="M45" s="2">
         <v>0.8383449074074073</v>
       </c>
@@ -5636,7 +9360,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="46" spans="13:40">
+    <row r="46" spans="2:40">
       <c r="M46" s="2">
         <v>0.8383449074074073</v>
       </c>
@@ -5692,7 +9416,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="13:40">
+    <row r="47" spans="2:40">
       <c r="M47" s="2">
         <v>0.83835648148148145</v>
       </c>
@@ -5748,7 +9472,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="48" spans="13:40">
+    <row r="48" spans="2:40">
       <c r="M48" s="2">
         <v>0.83835648148148145</v>
       </c>
@@ -5804,7 +9528,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="49" spans="13:32">
+    <row r="49" spans="4:32">
       <c r="M49" s="2">
         <v>0.8383680555555556</v>
       </c>
@@ -5860,7 +9584,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="50" spans="13:32">
+    <row r="50" spans="4:32">
       <c r="M50" s="2">
         <v>0.8383680555555556</v>
       </c>
@@ -5916,7 +9640,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="51" spans="13:32">
+    <row r="51" spans="4:32">
       <c r="M51" s="2">
         <v>0.83837962962962964</v>
       </c>
@@ -5972,7 +9696,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="52" spans="13:32">
+    <row r="52" spans="4:32">
       <c r="M52" s="2">
         <v>0.83837962962962964</v>
       </c>
@@ -6028,7 +9752,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="53" spans="13:32">
+    <row r="53" spans="4:32">
       <c r="M53" s="2">
         <v>0.83839120370370368</v>
       </c>
@@ -6084,7 +9808,10 @@
         <v>928</v>
       </c>
     </row>
-    <row r="54" spans="13:32">
+    <row r="54" spans="4:32">
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
       <c r="M54" s="2">
         <v>0.83839120370370368</v>
       </c>
@@ -6140,7 +9867,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="55" spans="13:32">
+    <row r="55" spans="4:32">
       <c r="M55" s="2">
         <v>0.83840277777777772</v>
       </c>
@@ -6196,7 +9923,19 @@
         <v>928</v>
       </c>
     </row>
-    <row r="56" spans="13:32">
+    <row r="56" spans="4:32">
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="M56" s="2">
         <v>0.83840277777777772</v>
       </c>
@@ -6252,7 +9991,19 @@
         <v>928</v>
       </c>
     </row>
-    <row r="57" spans="13:32">
+    <row r="57" spans="4:32">
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="M57" s="2">
         <v>0.83841435185185187</v>
       </c>
@@ -6308,7 +10059,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="58" spans="13:32">
+    <row r="58" spans="4:32">
+      <c r="D58" s="2">
+        <v>0.83811342592592597</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>37</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.83811342592592597</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>14</v>
+      </c>
+      <c r="K58">
+        <v>35</v>
+      </c>
       <c r="M58" s="2">
         <v>0.83841435185185187</v>
       </c>
@@ -6364,7 +10139,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="59" spans="13:32">
+    <row r="59" spans="4:32">
+      <c r="D59" s="2">
+        <v>0.8381249999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>111</v>
+      </c>
+      <c r="G59">
+        <v>39</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.8381249999999999</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>38</v>
+      </c>
       <c r="M59" s="2">
         <v>0.83842592592592602</v>
       </c>
@@ -6420,7 +10219,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="60" spans="13:32">
+    <row r="60" spans="4:32">
+      <c r="D60" s="2">
+        <v>0.83813657407407405</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>116</v>
+      </c>
+      <c r="G60">
+        <v>41</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.83813657407407405</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>121</v>
+      </c>
+      <c r="K60">
+        <v>39</v>
+      </c>
       <c r="M60" s="2">
         <v>0.83842592592592602</v>
       </c>
@@ -6476,7 +10299,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="61" spans="13:32">
+    <row r="61" spans="4:32">
+      <c r="D61" s="2">
+        <v>0.8381481481481482</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>117</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.8381481481481482</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>122</v>
+      </c>
+      <c r="K61">
+        <v>40</v>
+      </c>
       <c r="M61" s="2">
         <v>0.83843749999999995</v>
       </c>
@@ -6532,7 +10379,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="62" spans="13:32">
+    <row r="62" spans="4:32">
+      <c r="D62" s="2">
+        <v>0.83815972222222224</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>117</v>
+      </c>
+      <c r="G62">
+        <v>42</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.83815972222222224</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>122</v>
+      </c>
+      <c r="K62">
+        <v>40</v>
+      </c>
       <c r="M62" s="2">
         <v>0.83843749999999995</v>
       </c>
@@ -6588,7 +10459,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="63" spans="13:32">
+    <row r="63" spans="4:32">
+      <c r="D63" s="2">
+        <v>0.83817129629629628</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>117</v>
+      </c>
+      <c r="G63">
+        <v>42</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.83817129629629628</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>122</v>
+      </c>
+      <c r="K63">
+        <v>41</v>
+      </c>
       <c r="M63" s="2">
         <v>0.8384490740740741</v>
       </c>
@@ -6644,7 +10539,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="64" spans="13:32">
+    <row r="64" spans="4:32">
+      <c r="D64" s="2">
+        <v>0.83818287037037031</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>118</v>
+      </c>
+      <c r="G64">
+        <v>43</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.83818287037037031</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>122</v>
+      </c>
+      <c r="K64">
+        <v>41</v>
+      </c>
       <c r="M64" s="2">
         <v>0.8384490740740741</v>
       </c>
@@ -6700,7 +10619,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="65" spans="13:32">
+    <row r="65" spans="4:32">
+      <c r="D65" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>118</v>
+      </c>
+      <c r="G65">
+        <v>43</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.83819444444444446</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>122</v>
+      </c>
+      <c r="K65">
+        <v>41</v>
+      </c>
       <c r="M65" s="2">
         <v>0.83846064814814814</v>
       </c>
@@ -6756,7 +10699,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="66" spans="13:32">
+    <row r="66" spans="4:32">
+      <c r="D66" s="2">
+        <v>0.83820601851851861</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>118</v>
+      </c>
+      <c r="G66">
+        <v>43</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.83820601851851861</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>122</v>
+      </c>
+      <c r="K66">
+        <v>42</v>
+      </c>
       <c r="M66" s="2">
         <v>0.83846064814814814</v>
       </c>
@@ -6812,7 +10779,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="67" spans="13:32">
+    <row r="67" spans="4:32">
+      <c r="D67" s="2">
+        <v>0.83821759259259254</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>86</v>
+      </c>
+      <c r="G67">
+        <v>42</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.83821759259259254</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>88</v>
+      </c>
+      <c r="K67">
+        <v>41</v>
+      </c>
       <c r="M67" s="2">
         <v>0.83847222222222229</v>
       </c>
@@ -6868,7 +10859,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="68" spans="13:32">
+    <row r="68" spans="4:32">
+      <c r="D68" s="2">
+        <v>0.83822916666666669</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>86</v>
+      </c>
+      <c r="G68">
+        <v>42</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.83822916666666669</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>88</v>
+      </c>
+      <c r="K68">
+        <v>40</v>
+      </c>
       <c r="M68" s="2">
         <v>0.83847222222222229</v>
       </c>
@@ -6924,7 +10939,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="69" spans="13:32">
+    <row r="69" spans="4:32">
+      <c r="D69" s="2">
+        <v>0.83824074074074073</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>86</v>
+      </c>
+      <c r="G69">
+        <v>42</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.83824074074074073</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>88</v>
+      </c>
+      <c r="K69">
+        <v>41</v>
+      </c>
       <c r="M69" s="2">
         <v>0.83848379629629621</v>
       </c>
@@ -6980,7 +11019,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="70" spans="13:32">
+    <row r="70" spans="4:32">
+      <c r="D70" s="2">
+        <v>0.83825231481481488</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>86</v>
+      </c>
+      <c r="G70">
+        <v>43</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.83825231481481488</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>88</v>
+      </c>
+      <c r="K70">
+        <v>41</v>
+      </c>
       <c r="M70" s="2">
         <v>0.83848379629629621</v>
       </c>
@@ -7036,7 +11099,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="71" spans="13:32">
+    <row r="71" spans="4:32">
+      <c r="D71" s="2">
+        <v>0.83826388888888881</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>86</v>
+      </c>
+      <c r="G71">
+        <v>42</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.83826388888888881</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>88</v>
+      </c>
+      <c r="K71">
+        <v>41</v>
+      </c>
       <c r="M71" s="2">
         <v>0.83849537037037036</v>
       </c>
@@ -7092,7 +11179,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="72" spans="13:32">
+    <row r="72" spans="4:32">
+      <c r="D72" s="2">
+        <v>0.83827546296296296</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>86</v>
+      </c>
+      <c r="G72">
+        <v>42</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.83827546296296296</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>88</v>
+      </c>
+      <c r="K72">
+        <v>41</v>
+      </c>
       <c r="M72" s="2">
         <v>0.83849537037037036</v>
       </c>
@@ -7148,7 +11259,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="73" spans="13:32">
+    <row r="73" spans="4:32">
+      <c r="D73" s="2">
+        <v>0.83828703703703711</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>86</v>
+      </c>
+      <c r="G73">
+        <v>43</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.83828703703703711</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>88</v>
+      </c>
+      <c r="K73">
+        <v>41</v>
+      </c>
       <c r="M73" s="2">
         <v>0.83850694444444451</v>
       </c>
@@ -7204,7 +11339,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="74" spans="13:32">
+    <row r="74" spans="4:32">
+      <c r="D74" s="2">
+        <v>0.83829861111111115</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>86</v>
+      </c>
+      <c r="G74">
+        <v>43</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.83829861111111115</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>88</v>
+      </c>
+      <c r="K74">
+        <v>41</v>
+      </c>
       <c r="M74" s="2">
         <v>0.83850694444444451</v>
       </c>
@@ -7260,7 +11419,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="75" spans="13:32">
+    <row r="75" spans="4:32">
+      <c r="D75" s="2">
+        <v>0.83831018518518519</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>86</v>
+      </c>
+      <c r="G75">
+        <v>43</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.83831018518518519</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>88</v>
+      </c>
+      <c r="K75">
+        <v>41</v>
+      </c>
       <c r="M75" s="2">
         <v>0.83851851851851855</v>
       </c>
@@ -7316,7 +11499,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="76" spans="13:32">
+    <row r="76" spans="4:32">
+      <c r="D76" s="2">
+        <v>0.83832175925925922</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>86</v>
+      </c>
+      <c r="G76">
+        <v>43</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.83832175925925922</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>88</v>
+      </c>
+      <c r="K76">
+        <v>41</v>
+      </c>
       <c r="M76" s="2">
         <v>0.83851851851851855</v>
       </c>
@@ -7372,7 +11579,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="77" spans="13:32">
+    <row r="77" spans="4:32">
+      <c r="D77" s="2">
+        <v>0.83833333333333337</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>86</v>
+      </c>
+      <c r="G77">
+        <v>43</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.83833333333333337</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>88</v>
+      </c>
+      <c r="K77">
+        <v>41</v>
+      </c>
       <c r="M77" s="2">
         <v>0.83853009259259259</v>
       </c>
@@ -7428,7 +11659,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="78" spans="13:32">
+    <row r="78" spans="4:32">
+      <c r="D78" s="2">
+        <v>0.8383449074074073</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>86</v>
+      </c>
+      <c r="G78">
+        <v>43</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.8383449074074073</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>88</v>
+      </c>
+      <c r="K78">
+        <v>41</v>
+      </c>
       <c r="M78" s="2">
         <v>0.83853009259259259</v>
       </c>
@@ -7484,7 +11739,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="79" spans="13:32">
+    <row r="79" spans="4:32">
+      <c r="D79" s="2">
+        <v>0.83835648148148145</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>86</v>
+      </c>
+      <c r="G79">
+        <v>43</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.83835648148148145</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>88</v>
+      </c>
+      <c r="K79">
+        <v>41</v>
+      </c>
       <c r="M79" s="2">
         <v>0.83854166666666663</v>
       </c>
@@ -7540,7 +11819,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="80" spans="13:32">
+    <row r="80" spans="4:32">
+      <c r="D80" s="2">
+        <v>0.8383680555555556</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>87</v>
+      </c>
+      <c r="G80">
+        <v>43</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.8383680555555556</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>88</v>
+      </c>
+      <c r="K80">
+        <v>41</v>
+      </c>
       <c r="M80" s="2">
         <v>0.83854166666666663</v>
       </c>
@@ -7596,7 +11899,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="81" spans="13:32">
+    <row r="81" spans="4:32">
+      <c r="D81" s="2">
+        <v>0.83837962962962964</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>87</v>
+      </c>
+      <c r="G81">
+        <v>44</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.83837962962962964</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>88</v>
+      </c>
+      <c r="K81">
+        <v>42</v>
+      </c>
       <c r="M81" s="2">
         <v>0.83855324074074078</v>
       </c>
@@ -7652,7 +11979,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="82" spans="13:32">
+    <row r="82" spans="4:32">
+      <c r="D82" s="2">
+        <v>0.83839120370370368</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>87</v>
+      </c>
+      <c r="G82">
+        <v>43</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.83839120370370368</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>88</v>
+      </c>
+      <c r="K82">
+        <v>42</v>
+      </c>
       <c r="M82" s="2">
         <v>0.83855324074074078</v>
       </c>
@@ -7708,7 +12059,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="83" spans="13:32">
+    <row r="83" spans="4:32">
+      <c r="D83" s="2">
+        <v>0.83840277777777772</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>87</v>
+      </c>
+      <c r="G83">
+        <v>44</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.83840277777777772</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>88</v>
+      </c>
+      <c r="K83">
+        <v>42</v>
+      </c>
       <c r="M83" s="2">
         <v>0.83856481481481471</v>
       </c>
@@ -7764,7 +12139,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="84" spans="13:32">
+    <row r="84" spans="4:32">
+      <c r="D84" s="2">
+        <v>0.83841435185185187</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>87</v>
+      </c>
+      <c r="G84">
+        <v>44</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.83841435185185187</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>88</v>
+      </c>
+      <c r="K84">
+        <v>42</v>
+      </c>
       <c r="M84" s="2">
         <v>0.83856481481481471</v>
       </c>
@@ -7802,7 +12201,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="85" spans="13:32">
+    <row r="85" spans="4:32">
+      <c r="D85" s="2">
+        <v>0.83842592592592602</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>87</v>
+      </c>
+      <c r="G85">
+        <v>44</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.83842592592592602</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>88</v>
+      </c>
+      <c r="K85">
+        <v>42</v>
+      </c>
       <c r="M85" s="2">
         <v>0.83857638888888886</v>
       </c>
@@ -7840,7 +12263,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="86" spans="13:32">
+    <row r="86" spans="4:32">
+      <c r="D86" s="2">
+        <v>0.83843749999999995</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>87</v>
+      </c>
+      <c r="G86">
+        <v>44</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.83843749999999995</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>88</v>
+      </c>
+      <c r="K86">
+        <v>42</v>
+      </c>
       <c r="M86" s="2">
         <v>0.83857638888888886</v>
       </c>
@@ -7878,7 +12325,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="87" spans="13:32">
+    <row r="87" spans="4:32">
+      <c r="D87" s="2">
+        <v>0.8384490740740741</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>87</v>
+      </c>
+      <c r="G87">
+        <v>44</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.8384490740740741</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>88</v>
+      </c>
+      <c r="K87">
+        <v>42</v>
+      </c>
       <c r="M87" s="2">
         <v>0.83858796296296301</v>
       </c>
@@ -7916,7 +12387,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="88" spans="13:32">
+    <row r="88" spans="4:32">
+      <c r="D88" s="2">
+        <v>0.83846064814814814</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <v>44</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.83846064814814814</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>88</v>
+      </c>
+      <c r="K88">
+        <v>42</v>
+      </c>
       <c r="M88" s="2">
         <v>0.83858796296296301</v>
       </c>
@@ -7954,7 +12449,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="89" spans="13:32">
+    <row r="89" spans="4:32">
+      <c r="D89" s="2">
+        <v>0.83847222222222229</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>87</v>
+      </c>
+      <c r="G89">
+        <v>44</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.83847222222222229</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>88</v>
+      </c>
+      <c r="K89">
+        <v>42</v>
+      </c>
       <c r="M89" s="2">
         <v>0.83859953703703705</v>
       </c>
@@ -7992,7 +12511,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="90" spans="13:32">
+    <row r="90" spans="4:32">
+      <c r="D90" s="2">
+        <v>0.83848379629629621</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>87</v>
+      </c>
+      <c r="G90">
+        <v>44</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.83848379629629621</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>88</v>
+      </c>
+      <c r="K90">
+        <v>42</v>
+      </c>
       <c r="M90" s="2">
         <v>0.83859953703703705</v>
       </c>
@@ -8030,7 +12573,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="91" spans="13:32">
+    <row r="91" spans="4:32">
+      <c r="D91" s="2">
+        <v>0.83849537037037036</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>87</v>
+      </c>
+      <c r="G91">
+        <v>44</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.83849537037037036</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>88</v>
+      </c>
+      <c r="K91">
+        <v>42</v>
+      </c>
       <c r="M91" s="2">
         <v>0.83861111111111108</v>
       </c>
@@ -8068,7 +12635,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="92" spans="13:32">
+    <row r="92" spans="4:32">
+      <c r="D92" s="2">
+        <v>0.83850694444444451</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>87</v>
+      </c>
+      <c r="G92">
+        <v>44</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.83850694444444451</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>88</v>
+      </c>
+      <c r="K92">
+        <v>42</v>
+      </c>
       <c r="M92" s="2">
         <v>0.83861111111111108</v>
       </c>
@@ -8106,7 +12697,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="93" spans="13:32">
+    <row r="93" spans="4:32">
+      <c r="D93" s="2">
+        <v>0.83851851851851855</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>87</v>
+      </c>
+      <c r="G93">
+        <v>44</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.83851851851851855</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>88</v>
+      </c>
+      <c r="K93">
+        <v>43</v>
+      </c>
       <c r="M93" s="2">
         <v>0.83862268518518512</v>
       </c>
@@ -8144,7 +12759,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="13:32">
+    <row r="94" spans="4:32">
+      <c r="D94" s="2">
+        <v>0.83853009259259259</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>87</v>
+      </c>
+      <c r="G94">
+        <v>44</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.83853009259259259</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>88</v>
+      </c>
+      <c r="K94">
+        <v>42</v>
+      </c>
       <c r="M94" s="2">
         <v>0.83862268518518512</v>
       </c>
@@ -8182,7 +12821,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="95" spans="13:32">
+    <row r="95" spans="4:32">
+      <c r="D95" s="2">
+        <v>0.83854166666666663</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>87</v>
+      </c>
+      <c r="G95">
+        <v>45</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.83854166666666663</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>88</v>
+      </c>
+      <c r="K95">
+        <v>42</v>
+      </c>
       <c r="M95" s="2">
         <v>0.83863425925925927</v>
       </c>
@@ -8220,7 +12883,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="96" spans="13:32">
+    <row r="96" spans="4:32">
+      <c r="D96" s="2">
+        <v>0.83855324074074078</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>87</v>
+      </c>
+      <c r="G96">
+        <v>44</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.83855324074074078</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>88</v>
+      </c>
+      <c r="K96">
+        <v>43</v>
+      </c>
       <c r="M96" s="2">
         <v>0.83863425925925927</v>
       </c>
@@ -8258,7 +12945,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="97" spans="13:25">
+    <row r="97" spans="4:25">
+      <c r="D97" s="2">
+        <v>0.83856481481481471</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>87</v>
+      </c>
+      <c r="G97">
+        <v>45</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.83856481481481471</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>88</v>
+      </c>
+      <c r="K97">
+        <v>43</v>
+      </c>
       <c r="M97" s="2">
         <v>0.83864583333333342</v>
       </c>
@@ -8296,7 +13007,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="98" spans="13:25">
+    <row r="98" spans="4:25">
+      <c r="D98" s="2">
+        <v>0.83857638888888886</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>87</v>
+      </c>
+      <c r="G98">
+        <v>44</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.83857638888888886</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>88</v>
+      </c>
+      <c r="K98">
+        <v>43</v>
+      </c>
       <c r="M98" s="2">
         <v>0.83864583333333342</v>
       </c>
@@ -8334,7 +13069,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="99" spans="13:25">
+    <row r="99" spans="4:25">
+      <c r="D99" s="2">
+        <v>0.83858796296296301</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>87</v>
+      </c>
+      <c r="G99">
+        <v>45</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.83858796296296301</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>88</v>
+      </c>
+      <c r="K99">
+        <v>43</v>
+      </c>
       <c r="M99" s="2">
         <v>0.83865740740740735</v>
       </c>
@@ -8372,7 +13131,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="100" spans="13:25">
+    <row r="100" spans="4:25">
+      <c r="D100" s="2">
+        <v>0.83859953703703705</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>87</v>
+      </c>
+      <c r="G100">
+        <v>45</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.83859953703703705</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>88</v>
+      </c>
+      <c r="K100">
+        <v>43</v>
+      </c>
       <c r="M100" s="2">
         <v>0.83865740740740735</v>
       </c>
@@ -8410,7 +13193,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="101" spans="13:25">
+    <row r="101" spans="4:25">
+      <c r="D101" s="2">
+        <v>0.83861111111111108</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>87</v>
+      </c>
+      <c r="G101">
+        <v>45</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.83861111111111108</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>88</v>
+      </c>
+      <c r="K101">
+        <v>43</v>
+      </c>
       <c r="M101" s="2">
         <v>0.8386689814814815</v>
       </c>
@@ -8448,7 +13255,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="102" spans="13:25">
+    <row r="102" spans="4:25">
+      <c r="D102" s="2">
+        <v>0.83862268518518512</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>87</v>
+      </c>
+      <c r="G102">
+        <v>45</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.83862268518518512</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>88</v>
+      </c>
+      <c r="K102">
+        <v>43</v>
+      </c>
       <c r="M102" s="2">
         <v>0.8386689814814815</v>
       </c>
@@ -8486,7 +13317,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="103" spans="13:25">
+    <row r="103" spans="4:25">
+      <c r="D103" s="2">
+        <v>0.83863425925925927</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>87</v>
+      </c>
+      <c r="G103">
+        <v>45</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.83863425925925927</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>88</v>
+      </c>
+      <c r="K103">
+        <v>43</v>
+      </c>
       <c r="M103" s="2">
         <v>0.83868055555555554</v>
       </c>
@@ -8524,7 +13379,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="104" spans="13:25">
+    <row r="104" spans="4:25">
+      <c r="D104" s="2">
+        <v>0.83864583333333342</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>87</v>
+      </c>
+      <c r="G104">
+        <v>45</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.83864583333333342</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>88</v>
+      </c>
+      <c r="K104">
+        <v>43</v>
+      </c>
       <c r="M104" s="2">
         <v>0.83868055555555554</v>
       </c>
@@ -8562,7 +13441,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="105" spans="13:25">
+    <row r="105" spans="4:25">
+      <c r="D105" s="2">
+        <v>0.83865740740740735</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>87</v>
+      </c>
+      <c r="G105">
+        <v>45</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.83865740740740735</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>88</v>
+      </c>
+      <c r="K105">
+        <v>43</v>
+      </c>
       <c r="M105" s="2">
         <v>0.83869212962962969</v>
       </c>
@@ -8600,7 +13503,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="106" spans="13:25">
+    <row r="106" spans="4:25">
+      <c r="D106" s="2">
+        <v>0.8386689814814815</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>87</v>
+      </c>
+      <c r="G106">
+        <v>45</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.8386689814814815</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>88</v>
+      </c>
+      <c r="K106">
+        <v>43</v>
+      </c>
       <c r="M106" s="2">
         <v>0.83869212962962969</v>
       </c>
@@ -8638,7 +13565,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="107" spans="13:25">
+    <row r="107" spans="4:25">
+      <c r="D107" s="2">
+        <v>0.83868055555555554</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>87</v>
+      </c>
+      <c r="G107">
+        <v>45</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.83868055555555554</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>88</v>
+      </c>
+      <c r="K107">
+        <v>43</v>
+      </c>
       <c r="M107" s="2">
         <v>0.83870370370370362</v>
       </c>
@@ -8676,7 +13627,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="108" spans="13:25">
+    <row r="108" spans="4:25">
+      <c r="D108" s="2">
+        <v>0.83869212962962969</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>87</v>
+      </c>
+      <c r="G108">
+        <v>45</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.83869212962962969</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>88</v>
+      </c>
+      <c r="K108">
+        <v>43</v>
+      </c>
       <c r="M108" s="2">
         <v>0.83870370370370362</v>
       </c>
@@ -8714,7 +13689,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="109" spans="13:25">
+    <row r="109" spans="4:25">
+      <c r="D109" s="2">
+        <v>0.83870370370370362</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>87</v>
+      </c>
+      <c r="G109">
+        <v>45</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0.83870370370370362</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>88</v>
+      </c>
+      <c r="K109">
+        <v>43</v>
+      </c>
       <c r="M109" s="2">
         <v>0.83871527777777777</v>
       </c>
@@ -8752,7 +13751,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="110" spans="13:25">
+    <row r="110" spans="4:25">
+      <c r="D110" s="2">
+        <v>0.83871527777777777</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>87</v>
+      </c>
+      <c r="G110">
+        <v>45</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.83871527777777777</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>88</v>
+      </c>
+      <c r="K110">
+        <v>43</v>
+      </c>
       <c r="M110" s="2">
         <v>0.83871527777777777</v>
       </c>
@@ -8790,7 +13813,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="111" spans="13:25">
+    <row r="111" spans="4:25">
+      <c r="D111" s="2">
+        <v>0.83872685185185192</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>87</v>
+      </c>
+      <c r="G111">
+        <v>45</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.83872685185185192</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>88</v>
+      </c>
+      <c r="K111">
+        <v>43</v>
+      </c>
       <c r="M111" s="2">
         <v>0.83872685185185192</v>
       </c>
@@ -8828,7 +13875,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="112" spans="13:25">
+    <row r="112" spans="4:25">
+      <c r="D112" s="2">
+        <v>0.83873842592592596</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>87</v>
+      </c>
+      <c r="G112">
+        <v>46</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.83873842592592596</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>88</v>
+      </c>
+      <c r="K112">
+        <v>43</v>
+      </c>
       <c r="M112" s="2">
         <v>0.83872685185185192</v>
       </c>
@@ -8866,7 +13937,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="113" spans="13:25">
+    <row r="113" spans="4:25">
+      <c r="D113" s="2">
+        <v>0.83875</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>87</v>
+      </c>
+      <c r="G113">
+        <v>45</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.83875</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>88</v>
+      </c>
+      <c r="K113">
+        <v>44</v>
+      </c>
       <c r="M113" s="2">
         <v>0.83873842592592596</v>
       </c>
@@ -8904,7 +13999,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="114" spans="13:25">
+    <row r="114" spans="4:25">
+      <c r="D114" s="2">
+        <v>0.83876157407407403</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>87</v>
+      </c>
+      <c r="G114">
+        <v>46</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.83876157407407403</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>88</v>
+      </c>
+      <c r="K114">
+        <v>44</v>
+      </c>
       <c r="M114" s="2">
         <v>0.83873842592592596</v>
       </c>
@@ -8942,7 +14061,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="115" spans="13:25">
+    <row r="115" spans="4:25">
+      <c r="D115" s="2">
+        <v>0.83877314814814818</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>87</v>
+      </c>
+      <c r="G115">
+        <v>46</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.83877314814814818</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>88</v>
+      </c>
+      <c r="K115">
+        <v>44</v>
+      </c>
       <c r="M115" s="2">
         <v>0.83875</v>
       </c>
@@ -8980,7 +14123,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="116" spans="13:25">
+    <row r="116" spans="4:25">
+      <c r="D116" s="2">
+        <v>0.83878472222222211</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>87</v>
+      </c>
+      <c r="G116">
+        <v>46</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.83878472222222211</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>88</v>
+      </c>
+      <c r="K116">
+        <v>44</v>
+      </c>
       <c r="M116" s="2">
         <v>0.83875</v>
       </c>
@@ -9018,7 +14185,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="117" spans="13:25">
+    <row r="117" spans="4:25">
+      <c r="D117" s="2">
+        <v>0.83879629629629626</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>87</v>
+      </c>
+      <c r="G117">
+        <v>46</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.83879629629629626</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>88</v>
+      </c>
+      <c r="K117">
+        <v>44</v>
+      </c>
       <c r="M117" s="2">
         <v>0.83876157407407403</v>
       </c>
@@ -9056,7 +14247,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="118" spans="13:25">
+    <row r="118" spans="4:25">
+      <c r="D118" s="2">
+        <v>0.83880787037037041</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>87</v>
+      </c>
+      <c r="G118">
+        <v>46</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.83880787037037041</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>88</v>
+      </c>
+      <c r="K118">
+        <v>44</v>
+      </c>
       <c r="M118" s="2">
         <v>0.83876157407407403</v>
       </c>
@@ -9094,7 +14309,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="119" spans="13:25">
+    <row r="119" spans="4:25">
+      <c r="D119" s="2">
+        <v>0.83881944444444445</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>87</v>
+      </c>
+      <c r="G119">
+        <v>46</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.83881944444444445</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>88</v>
+      </c>
+      <c r="K119">
+        <v>44</v>
+      </c>
       <c r="M119" s="2">
         <v>0.83877314814814818</v>
       </c>
@@ -9132,7 +14371,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="120" spans="13:25">
+    <row r="120" spans="4:25">
+      <c r="D120" s="2">
+        <v>0.83883101851851849</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>87</v>
+      </c>
+      <c r="G120">
+        <v>46</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.83883101851851849</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>88</v>
+      </c>
+      <c r="K120">
+        <v>44</v>
+      </c>
       <c r="M120" s="2">
         <v>0.83877314814814818</v>
       </c>
@@ -9170,7 +14433,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="121" spans="13:25">
+    <row r="121" spans="4:25">
+      <c r="D121" s="2">
+        <v>0.83884259259259253</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>87</v>
+      </c>
+      <c r="G121">
+        <v>46</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.83884259259259253</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>88</v>
+      </c>
+      <c r="K121">
+        <v>44</v>
+      </c>
       <c r="M121" s="2">
         <v>0.83878472222222211</v>
       </c>
@@ -9208,7 +14495,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="122" spans="13:25">
+    <row r="122" spans="4:25">
+      <c r="D122" s="2">
+        <v>0.83885416666666668</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>87</v>
+      </c>
+      <c r="G122">
+        <v>46</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.83885416666666668</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>88</v>
+      </c>
+      <c r="K122">
+        <v>44</v>
+      </c>
       <c r="M122" s="2">
         <v>0.83878472222222211</v>
       </c>
@@ -9246,7 +14557,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="123" spans="13:25">
+    <row r="123" spans="4:25">
+      <c r="D123" s="2">
+        <v>0.83886574074074083</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>87</v>
+      </c>
+      <c r="G123">
+        <v>46</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.83886574074074083</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>88</v>
+      </c>
+      <c r="K123">
+        <v>44</v>
+      </c>
       <c r="M123" s="2">
         <v>0.83879629629629626</v>
       </c>
@@ -9284,7 +14619,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="124" spans="13:25">
+    <row r="124" spans="4:25">
+      <c r="D124" s="2">
+        <v>0.83887731481481476</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>87</v>
+      </c>
+      <c r="G124">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.83887731481481476</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>88</v>
+      </c>
+      <c r="K124">
+        <v>44</v>
+      </c>
       <c r="M124" s="2">
         <v>0.83879629629629626</v>
       </c>
@@ -9322,7 +14681,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="125" spans="13:25">
+    <row r="125" spans="4:25">
+      <c r="D125" s="2">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>87</v>
+      </c>
+      <c r="G125">
+        <v>46</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>88</v>
+      </c>
+      <c r="K125">
+        <v>44</v>
+      </c>
       <c r="M125" s="2">
         <v>0.83880787037037041</v>
       </c>
@@ -9360,7 +14743,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="126" spans="13:25">
+    <row r="126" spans="4:25">
+      <c r="D126" s="2">
+        <v>0.83890046296296295</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>87</v>
+      </c>
+      <c r="G126">
+        <v>46</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.83890046296296295</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>88</v>
+      </c>
+      <c r="K126">
+        <v>44</v>
+      </c>
       <c r="M126" s="2">
         <v>0.83880787037037041</v>
       </c>
@@ -9398,7 +14805,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="127" spans="13:25">
+    <row r="127" spans="4:25">
+      <c r="D127" s="2">
+        <v>0.83891203703703709</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>87</v>
+      </c>
+      <c r="G127">
+        <v>46</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.83891203703703709</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>88</v>
+      </c>
+      <c r="K127">
+        <v>44</v>
+      </c>
       <c r="M127" s="2">
         <v>0.83881944444444445</v>
       </c>
@@ -9436,7 +14867,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="128" spans="13:25">
+    <row r="128" spans="4:25">
+      <c r="D128" s="2">
+        <v>0.83892361111111102</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>87</v>
+      </c>
+      <c r="G128">
+        <v>46</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.83892361111111102</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>88</v>
+      </c>
+      <c r="K128">
+        <v>44</v>
+      </c>
       <c r="M128" s="2">
         <v>0.83881944444444445</v>
       </c>
@@ -9474,7 +14929,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="129" spans="13:25">
+    <row r="129" spans="4:25">
+      <c r="D129" s="2">
+        <v>0.83893518518518517</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>87</v>
+      </c>
+      <c r="G129">
+        <v>46</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.83893518518518517</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>88</v>
+      </c>
+      <c r="K129">
+        <v>44</v>
+      </c>
       <c r="M129" s="2">
         <v>0.83883101851851849</v>
       </c>
@@ -9512,7 +14991,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="130" spans="13:25">
+    <row r="130" spans="4:25">
+      <c r="D130" s="2">
+        <v>0.83894675925925932</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>87</v>
+      </c>
+      <c r="G130">
+        <v>46</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.83894675925925932</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>88</v>
+      </c>
+      <c r="K130">
+        <v>44</v>
+      </c>
       <c r="M130" s="2">
         <v>0.83883101851851849</v>
       </c>
@@ -9550,7 +15053,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="131" spans="13:25">
+    <row r="131" spans="4:25">
+      <c r="D131" s="2">
+        <v>0.83895833333333336</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>87</v>
+      </c>
+      <c r="G131">
+        <v>46</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.83895833333333336</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>88</v>
+      </c>
+      <c r="K131">
+        <v>44</v>
+      </c>
       <c r="M131" s="2">
         <v>0.83884259259259253</v>
       </c>
@@ -9588,7 +15115,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="132" spans="13:25">
+    <row r="132" spans="4:25">
+      <c r="D132" s="2">
+        <v>0.8389699074074074</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>87</v>
+      </c>
+      <c r="G132">
+        <v>46</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.8389699074074074</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>88</v>
+      </c>
+      <c r="K132">
+        <v>44</v>
+      </c>
       <c r="M132" s="2">
         <v>0.83884259259259253</v>
       </c>
@@ -9626,7 +15177,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="133" spans="13:25">
+    <row r="133" spans="4:25">
+      <c r="D133" s="2">
+        <v>0.83898148148148144</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>87</v>
+      </c>
+      <c r="G133">
+        <v>47</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.83898148148148144</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>88</v>
+      </c>
+      <c r="K133">
+        <v>44</v>
+      </c>
       <c r="M133" s="2">
         <v>0.83885416666666668</v>
       </c>
@@ -9664,7 +15239,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="134" spans="13:25">
+    <row r="134" spans="4:25">
+      <c r="D134" s="2">
+        <v>0.83899305555555559</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>87</v>
+      </c>
+      <c r="G134">
+        <v>47</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.83899305555555559</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>88</v>
+      </c>
+      <c r="K134">
+        <v>44</v>
+      </c>
       <c r="M134" s="2">
         <v>0.83885416666666668</v>
       </c>
@@ -9702,7 +15301,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="135" spans="13:25">
+    <row r="135" spans="4:25">
+      <c r="D135" s="2">
+        <v>0.83900462962962974</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>87</v>
+      </c>
+      <c r="G135">
+        <v>47</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.83900462962962974</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>88</v>
+      </c>
+      <c r="K135">
+        <v>44</v>
+      </c>
       <c r="M135" s="2">
         <v>0.83886574074074083</v>
       </c>
@@ -9740,7 +15363,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="136" spans="13:25">
+    <row r="136" spans="4:25">
+      <c r="D136" s="2">
+        <v>0.83901620370370367</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>87</v>
+      </c>
+      <c r="G136">
+        <v>47</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.83901620370370367</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>88</v>
+      </c>
+      <c r="K136">
+        <v>45</v>
+      </c>
       <c r="M136" s="2">
         <v>0.83886574074074083</v>
       </c>
@@ -9778,7 +15425,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="137" spans="13:25">
+    <row r="137" spans="4:25">
+      <c r="D137" s="2">
+        <v>0.83902777777777782</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>87</v>
+      </c>
+      <c r="G137">
+        <v>47</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.83902777777777782</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>88</v>
+      </c>
+      <c r="K137">
+        <v>45</v>
+      </c>
       <c r="M137" s="2">
         <v>0.83887731481481476</v>
       </c>
@@ -9816,7 +15487,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="138" spans="13:25">
+    <row r="138" spans="4:25">
+      <c r="D138" s="2">
+        <v>0.83903935185185186</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>87</v>
+      </c>
+      <c r="G138">
+        <v>47</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.83903935185185186</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>88</v>
+      </c>
+      <c r="K138">
+        <v>44</v>
+      </c>
       <c r="M138" s="2">
         <v>0.83887731481481476</v>
       </c>
@@ -9836,7 +15531,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="139" spans="13:25">
+    <row r="139" spans="4:25">
+      <c r="D139" s="2">
+        <v>0.83905092592592589</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>87</v>
+      </c>
+      <c r="G139">
+        <v>47</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.83905092592592589</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>88</v>
+      </c>
+      <c r="K139">
+        <v>45</v>
+      </c>
       <c r="M139" s="2">
         <v>0.83888888888888891</v>
       </c>
@@ -9856,7 +15575,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="140" spans="13:25">
+    <row r="140" spans="4:25">
+      <c r="D140" s="2">
+        <v>0.83906249999999993</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>87</v>
+      </c>
+      <c r="G140">
+        <v>47</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.83906249999999993</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>88</v>
+      </c>
+      <c r="K140">
+        <v>45</v>
+      </c>
       <c r="M140" s="2">
         <v>0.83888888888888891</v>
       </c>
@@ -9876,7 +15619,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="141" spans="13:25">
+    <row r="141" spans="4:25">
+      <c r="D141" s="2">
+        <v>0.83907407407407408</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>87</v>
+      </c>
+      <c r="G141">
+        <v>47</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.83907407407407408</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>88</v>
+      </c>
+      <c r="K141">
+        <v>45</v>
+      </c>
       <c r="M141" s="2">
         <v>0.83890046296296295</v>
       </c>
@@ -9896,7 +15663,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="142" spans="13:25">
+    <row r="142" spans="4:25">
+      <c r="D142" s="2">
+        <v>0.83908564814814823</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>87</v>
+      </c>
+      <c r="G142">
+        <v>47</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.83908564814814823</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>88</v>
+      </c>
+      <c r="K142">
+        <v>45</v>
+      </c>
       <c r="M142" s="2">
         <v>0.83890046296296295</v>
       </c>
@@ -9916,7 +15707,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="143" spans="13:25">
+    <row r="143" spans="4:25">
+      <c r="D143" s="2">
+        <v>0.83909722222222216</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>87</v>
+      </c>
+      <c r="G143">
+        <v>47</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.83909722222222216</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>88</v>
+      </c>
+      <c r="K143">
+        <v>45</v>
+      </c>
       <c r="M143" s="2">
         <v>0.83891203703703709</v>
       </c>
@@ -9936,7 +15751,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="144" spans="13:25">
+    <row r="144" spans="4:25">
+      <c r="D144" s="2">
+        <v>0.83910879629629631</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>87</v>
+      </c>
+      <c r="G144">
+        <v>47</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.83910879629629631</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>88</v>
+      </c>
+      <c r="K144">
+        <v>45</v>
+      </c>
       <c r="M144" s="2">
         <v>0.83891203703703709</v>
       </c>
@@ -9956,7 +15795,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="145" spans="13:18">
+    <row r="145" spans="4:18">
+      <c r="D145" s="2">
+        <v>0.83912037037037035</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>87</v>
+      </c>
+      <c r="G145">
+        <v>47</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.83912037037037035</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>88</v>
+      </c>
+      <c r="K145">
+        <v>45</v>
+      </c>
       <c r="M145" s="2">
         <v>0.83892361111111102</v>
       </c>
@@ -9976,7 +15839,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="146" spans="13:18">
+    <row r="146" spans="4:18">
+      <c r="D146" s="2">
+        <v>0.8391319444444445</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>87</v>
+      </c>
+      <c r="G146">
+        <v>47</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.8391319444444445</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>88</v>
+      </c>
+      <c r="K146">
+        <v>45</v>
+      </c>
       <c r="M146" s="2">
         <v>0.83892361111111102</v>
       </c>
@@ -9996,7 +15883,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="147" spans="13:18">
+    <row r="147" spans="4:18">
+      <c r="D147" s="2">
+        <v>0.83914351851851843</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>87</v>
+      </c>
+      <c r="G147">
+        <v>47</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.83914351851851843</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>88</v>
+      </c>
+      <c r="K147">
+        <v>45</v>
+      </c>
       <c r="M147" s="2">
         <v>0.83893518518518517</v>
       </c>
@@ -10016,7 +15927,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="148" spans="13:18">
+    <row r="148" spans="4:18">
+      <c r="D148" s="2">
+        <v>0.83915509259259258</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>87</v>
+      </c>
+      <c r="G148">
+        <v>47</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.83915509259259258</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>88</v>
+      </c>
+      <c r="K148">
+        <v>45</v>
+      </c>
       <c r="M148" s="2">
         <v>0.83893518518518517</v>
       </c>
@@ -10036,7 +15971,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="149" spans="13:18">
+    <row r="149" spans="4:18">
+      <c r="D149" s="2">
+        <v>0.83916666666666673</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>87</v>
+      </c>
+      <c r="G149">
+        <v>47</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.83916666666666673</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>88</v>
+      </c>
+      <c r="K149">
+        <v>45</v>
+      </c>
       <c r="M149" s="2">
         <v>0.83894675925925932</v>
       </c>
@@ -10056,7 +16015,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="150" spans="13:18">
+    <row r="150" spans="4:18">
+      <c r="D150" s="2">
+        <v>0.83917824074074077</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>87</v>
+      </c>
+      <c r="G150">
+        <v>47</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.83917824074074077</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>88</v>
+      </c>
+      <c r="K150">
+        <v>45</v>
+      </c>
       <c r="M150" s="2">
         <v>0.83894675925925932</v>
       </c>
@@ -10076,7 +16059,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="151" spans="13:18">
+    <row r="151" spans="4:18">
+      <c r="D151" s="2">
+        <v>0.83918981481481481</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>87</v>
+      </c>
+      <c r="G151">
+        <v>47</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.83918981481481481</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>88</v>
+      </c>
+      <c r="K151">
+        <v>45</v>
+      </c>
       <c r="M151" s="2">
         <v>0.83895833333333336</v>
       </c>
@@ -10096,7 +16103,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="152" spans="13:18">
+    <row r="152" spans="4:18">
+      <c r="D152" s="2">
+        <v>0.83920138888888884</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>87</v>
+      </c>
+      <c r="G152">
+        <v>47</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.83920138888888884</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>88</v>
+      </c>
+      <c r="K152">
+        <v>45</v>
+      </c>
       <c r="M152" s="2">
         <v>0.83895833333333336</v>
       </c>
@@ -10116,7 +16147,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="153" spans="13:18">
+    <row r="153" spans="4:18">
+      <c r="D153" s="2">
+        <v>0.83921296296296299</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>87</v>
+      </c>
+      <c r="G153">
+        <v>47</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.83921296296296299</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>88</v>
+      </c>
+      <c r="K153">
+        <v>45</v>
+      </c>
       <c r="M153" s="2">
         <v>0.8389699074074074</v>
       </c>
@@ -10136,7 +16191,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="154" spans="13:18">
+    <row r="154" spans="4:18">
+      <c r="D154" s="2">
+        <v>0.83922453703703714</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>87</v>
+      </c>
+      <c r="G154">
+        <v>47</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.83922453703703714</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>88</v>
+      </c>
+      <c r="K154">
+        <v>45</v>
+      </c>
       <c r="M154" s="2">
         <v>0.8389699074074074</v>
       </c>
@@ -10156,7 +16235,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="155" spans="13:18">
+    <row r="155" spans="4:18">
+      <c r="D155" s="2">
+        <v>0.83923611111111107</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>87</v>
+      </c>
+      <c r="G155">
+        <v>47</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.83923611111111107</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>88</v>
+      </c>
+      <c r="K155">
+        <v>45</v>
+      </c>
       <c r="M155" s="2">
         <v>0.83898148148148144</v>
       </c>
@@ -10176,7 +16279,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="156" spans="13:18">
+    <row r="156" spans="4:18">
+      <c r="D156" s="2">
+        <v>0.83924768518518522</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>87</v>
+      </c>
+      <c r="G156">
+        <v>48</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.83924768518518522</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>88</v>
+      </c>
+      <c r="K156">
+        <v>45</v>
+      </c>
       <c r="M156" s="2">
         <v>0.83898148148148144</v>
       </c>
@@ -10196,7 +16323,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="157" spans="13:18">
+    <row r="157" spans="4:18">
+      <c r="D157" s="2">
+        <v>0.83925925925925926</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>87</v>
+      </c>
+      <c r="G157">
+        <v>47</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.83925925925925926</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>88</v>
+      </c>
+      <c r="K157">
+        <v>45</v>
+      </c>
       <c r="M157" s="2">
         <v>0.83899305555555559</v>
       </c>
@@ -10216,7 +16367,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="158" spans="13:18">
+    <row r="158" spans="4:18">
+      <c r="D158" s="2">
+        <v>0.8392708333333333</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>87</v>
+      </c>
+      <c r="G158">
+        <v>47</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.8392708333333333</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>88</v>
+      </c>
+      <c r="K158">
+        <v>45</v>
+      </c>
       <c r="M158" s="2">
         <v>0.83899305555555559</v>
       </c>
@@ -10236,7 +16411,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="159" spans="13:18">
+    <row r="159" spans="4:18">
+      <c r="D159" s="2">
+        <v>0.83928240740740734</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>87</v>
+      </c>
+      <c r="G159">
+        <v>48</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0.83928240740740734</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>89</v>
+      </c>
+      <c r="K159">
+        <v>45</v>
+      </c>
       <c r="M159" s="2">
         <v>0.83900462962962974</v>
       </c>
@@ -10256,7 +16455,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="160" spans="13:18">
+    <row r="160" spans="4:18">
+      <c r="D160" s="2">
+        <v>0.83929398148148149</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>87</v>
+      </c>
+      <c r="G160">
+        <v>47</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0.83929398148148149</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>88</v>
+      </c>
+      <c r="K160">
+        <v>45</v>
+      </c>
       <c r="M160" s="2">
         <v>0.83900462962962974</v>
       </c>
@@ -10276,7 +16499,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="161" spans="13:18">
+    <row r="161" spans="4:18">
+      <c r="D161" s="2">
+        <v>0.83930555555555564</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>87</v>
+      </c>
+      <c r="G161">
+        <v>47</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0.83930555555555564</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>88</v>
+      </c>
+      <c r="K161">
+        <v>45</v>
+      </c>
       <c r="M161" s="2">
         <v>0.83901620370370367</v>
       </c>
@@ -10296,7 +16543,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="162" spans="13:18">
+    <row r="162" spans="4:18">
+      <c r="D162" s="2">
+        <v>0.83931712962962957</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>87</v>
+      </c>
+      <c r="G162">
+        <v>48</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.83931712962962957</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>89</v>
+      </c>
+      <c r="K162">
+        <v>45</v>
+      </c>
       <c r="M162" s="2">
         <v>0.83901620370370367</v>
       </c>
@@ -10316,7 +16587,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="163" spans="13:18">
+    <row r="163" spans="4:18">
+      <c r="D163" s="2">
+        <v>0.83932870370370372</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>87</v>
+      </c>
+      <c r="G163">
+        <v>48</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.83932870370370372</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>88</v>
+      </c>
+      <c r="K163">
+        <v>45</v>
+      </c>
       <c r="M163" s="2">
         <v>0.83902777777777782</v>
       </c>
@@ -10336,7 +16631,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="164" spans="13:18">
+    <row r="164" spans="4:18">
+      <c r="D164" s="2">
+        <v>0.83934027777777775</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>87</v>
+      </c>
+      <c r="G164">
+        <v>48</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.83934027777777775</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>88</v>
+      </c>
+      <c r="K164">
+        <v>45</v>
+      </c>
       <c r="M164" s="2">
         <v>0.83902777777777782</v>
       </c>
@@ -10356,7 +16675,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="165" spans="13:18">
+    <row r="165" spans="4:18">
+      <c r="D165" s="2">
+        <v>0.8393518518518519</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>87</v>
+      </c>
+      <c r="G165">
+        <v>48</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.8393518518518519</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>88</v>
+      </c>
+      <c r="K165">
+        <v>45</v>
+      </c>
       <c r="M165" s="2">
         <v>0.83903935185185186</v>
       </c>
@@ -10376,7 +16719,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="166" spans="13:18">
+    <row r="166" spans="4:18">
+      <c r="D166" s="2">
+        <v>0.83936342592592583</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>87</v>
+      </c>
+      <c r="G166">
+        <v>48</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.83936342592592583</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>89</v>
+      </c>
+      <c r="K166">
+        <v>45</v>
+      </c>
       <c r="M166" s="2">
         <v>0.83903935185185186</v>
       </c>
@@ -10396,7 +16763,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="167" spans="13:18">
+    <row r="167" spans="4:18">
+      <c r="D167" s="2">
+        <v>0.83937499999999998</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>87</v>
+      </c>
+      <c r="G167">
+        <v>48</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0.83937499999999998</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>89</v>
+      </c>
+      <c r="K167">
+        <v>45</v>
+      </c>
       <c r="M167" s="2">
         <v>0.83905092592592589</v>
       </c>
@@ -10416,7 +16807,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="168" spans="13:18">
+    <row r="168" spans="4:18">
+      <c r="D168" s="2">
+        <v>0.83938657407407413</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>87</v>
+      </c>
+      <c r="G168">
+        <v>48</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.83938657407407413</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>89</v>
+      </c>
+      <c r="K168">
+        <v>45</v>
+      </c>
       <c r="M168" s="2">
         <v>0.83905092592592589</v>
       </c>
@@ -10436,7 +16851,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="169" spans="13:18">
+    <row r="169" spans="4:18">
+      <c r="D169" s="2">
+        <v>0.83939814814814817</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>87</v>
+      </c>
+      <c r="G169">
+        <v>48</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.83939814814814817</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>89</v>
+      </c>
+      <c r="K169">
+        <v>46</v>
+      </c>
       <c r="M169" s="2">
         <v>0.83906249999999993</v>
       </c>
@@ -10456,7 +16895,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="170" spans="13:18">
+    <row r="170" spans="4:18">
+      <c r="D170" s="2">
+        <v>0.83940972222222221</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>87</v>
+      </c>
+      <c r="G170">
+        <v>48</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0.83940972222222221</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>89</v>
+      </c>
+      <c r="K170">
+        <v>45</v>
+      </c>
       <c r="M170" s="2">
         <v>0.83906249999999993</v>
       </c>
@@ -10476,7 +16939,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="171" spans="13:18">
+    <row r="171" spans="4:18">
+      <c r="D171" s="2">
+        <v>0.83942129629629625</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>87</v>
+      </c>
+      <c r="G171">
+        <v>48</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0.83942129629629625</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>89</v>
+      </c>
+      <c r="K171">
+        <v>46</v>
+      </c>
       <c r="M171" s="2">
         <v>0.83907407407407408</v>
       </c>
@@ -10496,7 +16983,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="172" spans="13:18">
+    <row r="172" spans="4:18">
+      <c r="D172" s="2">
+        <v>0.8394328703703704</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>87</v>
+      </c>
+      <c r="G172">
+        <v>48</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0.8394328703703704</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>89</v>
+      </c>
+      <c r="K172">
+        <v>45</v>
+      </c>
       <c r="M172" s="2">
         <v>0.83907407407407408</v>
       </c>
@@ -10516,7 +17027,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="173" spans="13:18">
+    <row r="173" spans="4:18">
+      <c r="D173" s="2">
+        <v>0.83944444444444455</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>87</v>
+      </c>
+      <c r="G173">
+        <v>48</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0.83944444444444455</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>89</v>
+      </c>
+      <c r="K173">
+        <v>46</v>
+      </c>
       <c r="M173" s="2">
         <v>0.83908564814814823</v>
       </c>
@@ -10536,7 +17071,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="174" spans="13:18">
+    <row r="174" spans="4:18">
+      <c r="D174" s="2">
+        <v>0.83945601851851848</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>87</v>
+      </c>
+      <c r="G174">
+        <v>48</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.83945601851851848</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>89</v>
+      </c>
+      <c r="K174">
+        <v>46</v>
+      </c>
       <c r="M174" s="2">
         <v>0.83908564814814823</v>
       </c>
@@ -10556,7 +17115,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="175" spans="13:18">
+    <row r="175" spans="4:18">
+      <c r="D175" s="2">
+        <v>0.83946759259259263</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>87</v>
+      </c>
+      <c r="G175">
+        <v>48</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0.83946759259259263</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>89</v>
+      </c>
+      <c r="K175">
+        <v>46</v>
+      </c>
       <c r="M175" s="2">
         <v>0.83909722222222216</v>
       </c>
@@ -10576,7 +17159,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="176" spans="13:18">
+    <row r="176" spans="4:18">
+      <c r="D176" s="2">
+        <v>0.83947916666666667</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>87</v>
+      </c>
+      <c r="G176">
+        <v>48</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.83947916666666667</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>89</v>
+      </c>
+      <c r="K176">
+        <v>46</v>
+      </c>
       <c r="M176" s="2">
         <v>0.83909722222222216</v>
       </c>
@@ -10596,7 +17203,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="177" spans="13:18">
+    <row r="177" spans="4:18">
+      <c r="D177" s="2">
+        <v>0.8394907407407407</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>87</v>
+      </c>
+      <c r="G177">
+        <v>48</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0.8394907407407407</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>89</v>
+      </c>
+      <c r="K177">
+        <v>46</v>
+      </c>
       <c r="M177" s="2">
         <v>0.83910879629629631</v>
       </c>
@@ -10616,7 +17247,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="178" spans="13:18">
+    <row r="178" spans="4:18">
+      <c r="D178" s="2">
+        <v>0.83951388888888889</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>87</v>
+      </c>
+      <c r="G178">
+        <v>48</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0.83951388888888889</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>89</v>
+      </c>
+      <c r="K178">
+        <v>46</v>
+      </c>
       <c r="M178" s="2">
         <v>0.83910879629629631</v>
       </c>
@@ -10636,7 +17291,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="179" spans="13:18">
+    <row r="179" spans="4:18">
+      <c r="D179" s="2">
+        <v>0.83952546296296304</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>87</v>
+      </c>
+      <c r="G179">
+        <v>48</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.83952546296296304</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>89</v>
+      </c>
+      <c r="K179">
+        <v>46</v>
+      </c>
       <c r="M179" s="2">
         <v>0.83912037037037035</v>
       </c>
@@ -10656,7 +17335,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="180" spans="13:18">
+    <row r="180" spans="4:18">
+      <c r="D180" s="2">
+        <v>0.83953703703703697</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>87</v>
+      </c>
+      <c r="G180">
+        <v>48</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0.83953703703703697</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>89</v>
+      </c>
+      <c r="K180">
+        <v>46</v>
+      </c>
       <c r="M180" s="2">
         <v>0.83912037037037035</v>
       </c>
@@ -10676,7 +17379,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="181" spans="13:18">
+    <row r="181" spans="4:18">
+      <c r="D181" s="2">
+        <v>0.83954861111111112</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>87</v>
+      </c>
+      <c r="G181">
+        <v>48</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.83954861111111112</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>89</v>
+      </c>
+      <c r="K181">
+        <v>46</v>
+      </c>
       <c r="M181" s="2">
         <v>0.8391319444444445</v>
       </c>
@@ -10696,7 +17423,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="182" spans="13:18">
+    <row r="182" spans="4:18">
+      <c r="D182" s="2">
+        <v>0.83956018518518516</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>87</v>
+      </c>
+      <c r="G182">
+        <v>48</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.83956018518518516</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>89</v>
+      </c>
+      <c r="K182">
+        <v>46</v>
+      </c>
       <c r="M182" s="2">
         <v>0.8391319444444445</v>
       </c>
@@ -10716,7 +17467,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="183" spans="13:18">
+    <row r="183" spans="4:18">
+      <c r="D183" s="2">
+        <v>0.83957175925925931</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>87</v>
+      </c>
+      <c r="G183">
+        <v>48</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.83957175925925931</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>89</v>
+      </c>
+      <c r="K183">
+        <v>46</v>
+      </c>
       <c r="M183" s="2">
         <v>0.83914351851851843</v>
       </c>
@@ -10736,7 +17511,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="184" spans="13:18">
+    <row r="184" spans="4:18">
+      <c r="D184" s="2">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>87</v>
+      </c>
+      <c r="G184">
+        <v>48</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.83958333333333324</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>89</v>
+      </c>
+      <c r="K184">
+        <v>46</v>
+      </c>
       <c r="M184" s="2">
         <v>0.83914351851851843</v>
       </c>
@@ -10756,7 +17555,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="185" spans="13:18">
+    <row r="185" spans="4:18">
+      <c r="D185" s="2">
+        <v>0.83959490740740739</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>87</v>
+      </c>
+      <c r="G185">
+        <v>48</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0.83959490740740739</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>89</v>
+      </c>
+      <c r="K185">
+        <v>46</v>
+      </c>
       <c r="M185" s="2">
         <v>0.83915509259259258</v>
       </c>
@@ -10776,7 +17599,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="186" spans="13:18">
+    <row r="186" spans="4:18">
+      <c r="D186" s="2">
+        <v>0.83960648148148154</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>87</v>
+      </c>
+      <c r="G186">
+        <v>48</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.83960648148148154</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>89</v>
+      </c>
+      <c r="K186">
+        <v>46</v>
+      </c>
       <c r="M186" s="2">
         <v>0.83915509259259258</v>
       </c>
@@ -10796,7 +17643,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="187" spans="13:18">
+    <row r="187" spans="4:18">
+      <c r="D187" s="2">
+        <v>0.83961805555555558</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>87</v>
+      </c>
+      <c r="G187">
+        <v>48</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0.83961805555555558</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>89</v>
+      </c>
+      <c r="K187">
+        <v>46</v>
+      </c>
       <c r="M187" s="2">
         <v>0.83916666666666673</v>
       </c>
@@ -10816,7 +17687,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="188" spans="13:18">
+    <row r="188" spans="4:18">
+      <c r="D188" s="2">
+        <v>0.83962962962962961</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>87</v>
+      </c>
+      <c r="G188">
+        <v>48</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.83962962962962961</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>89</v>
+      </c>
+      <c r="K188">
+        <v>46</v>
+      </c>
       <c r="M188" s="2">
         <v>0.83916666666666673</v>
       </c>
@@ -10836,7 +17731,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="189" spans="13:18">
+    <row r="189" spans="4:18">
+      <c r="D189" s="2">
+        <v>0.83964120370370365</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>87</v>
+      </c>
+      <c r="G189">
+        <v>48</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0.83964120370370365</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>89</v>
+      </c>
+      <c r="K189">
+        <v>46</v>
+      </c>
       <c r="M189" s="2">
         <v>0.83917824074074077</v>
       </c>
@@ -10856,7 +17775,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="190" spans="13:18">
+    <row r="190" spans="4:18">
+      <c r="D190" s="2">
+        <v>0.8396527777777778</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>87</v>
+      </c>
+      <c r="G190">
+        <v>48</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0.8396527777777778</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>89</v>
+      </c>
+      <c r="K190">
+        <v>46</v>
+      </c>
       <c r="M190" s="2">
         <v>0.83917824074074077</v>
       </c>
@@ -10876,7 +17819,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="191" spans="13:18">
+    <row r="191" spans="4:18">
+      <c r="D191" s="2">
+        <v>0.83966435185185195</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>87</v>
+      </c>
+      <c r="G191">
+        <v>48</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0.83966435185185195</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>89</v>
+      </c>
+      <c r="K191">
+        <v>46</v>
+      </c>
       <c r="M191" s="2">
         <v>0.83918981481481481</v>
       </c>
@@ -10896,7 +17863,31 @@
         <v>928</v>
       </c>
     </row>
-    <row r="192" spans="13:18">
+    <row r="192" spans="4:18">
+      <c r="D192" s="2">
+        <v>0.83967592592592588</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>87</v>
+      </c>
+      <c r="G192">
+        <v>49</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0.83967592592592588</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>81</v>
+      </c>
+      <c r="K192">
+        <v>46</v>
+      </c>
       <c r="M192" s="2">
         <v>0.83918981481481481</v>
       </c>
@@ -10916,7 +17907,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="193" spans="13:18">
+    <row r="193" spans="5:18">
       <c r="M193" s="2">
         <v>0.83920138888888884</v>
       </c>
@@ -10936,7 +17927,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="194" spans="13:18">
+    <row r="194" spans="5:18">
       <c r="M194" s="2">
         <v>0.83920138888888884</v>
       </c>
@@ -10956,7 +17947,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="195" spans="13:18">
+    <row r="195" spans="5:18">
       <c r="M195" s="2">
         <v>0.83921296296296299</v>
       </c>
@@ -10976,7 +17967,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="196" spans="13:18">
+    <row r="196" spans="5:18">
       <c r="M196" s="2">
         <v>0.83921296296296299</v>
       </c>
@@ -10996,7 +17987,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="197" spans="13:18">
+    <row r="197" spans="5:18">
       <c r="M197" s="2">
         <v>0.83922453703703714</v>
       </c>
@@ -11016,7 +18007,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="198" spans="13:18">
+    <row r="198" spans="5:18">
       <c r="M198" s="2">
         <v>0.83922453703703714</v>
       </c>
@@ -11036,7 +18027,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="199" spans="13:18">
+    <row r="199" spans="5:18">
+      <c r="E199" s="2"/>
       <c r="M199" s="2">
         <v>0.83923611111111107</v>
       </c>
@@ -11056,7 +18048,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="200" spans="13:18">
+    <row r="200" spans="5:18">
+      <c r="E200" s="2"/>
       <c r="M200" s="2">
         <v>0.83923611111111107</v>
       </c>
@@ -11076,7 +18069,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="201" spans="13:18">
+    <row r="201" spans="5:18">
+      <c r="E201" s="2"/>
       <c r="M201" s="2">
         <v>0.83924768518518522</v>
       </c>
@@ -11096,7 +18090,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="202" spans="13:18">
+    <row r="202" spans="5:18">
+      <c r="E202" s="2"/>
       <c r="M202" s="2">
         <v>0.83924768518518522</v>
       </c>
@@ -11116,7 +18111,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="203" spans="13:18">
+    <row r="203" spans="5:18">
+      <c r="E203" s="2"/>
       <c r="M203" s="2">
         <v>0.83925925925925926</v>
       </c>
@@ -11136,7 +18132,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="204" spans="13:18">
+    <row r="204" spans="5:18">
+      <c r="E204" s="2"/>
       <c r="M204" s="2">
         <v>0.83925925925925926</v>
       </c>
@@ -11156,7 +18153,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="205" spans="13:18">
+    <row r="205" spans="5:18">
+      <c r="E205" s="2"/>
       <c r="M205" s="2">
         <v>0.8392708333333333</v>
       </c>
@@ -11176,7 +18174,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="206" spans="13:18">
+    <row r="206" spans="5:18">
+      <c r="E206" s="2"/>
       <c r="M206" s="2">
         <v>0.8392708333333333</v>
       </c>
@@ -11196,7 +18195,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="207" spans="13:18">
+    <row r="207" spans="5:18">
+      <c r="E207" s="2"/>
       <c r="M207" s="2">
         <v>0.83928240740740734</v>
       </c>
@@ -11216,7 +18216,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="208" spans="13:18">
+    <row r="208" spans="5:18">
+      <c r="E208" s="2"/>
       <c r="M208" s="2">
         <v>0.83928240740740734</v>
       </c>
@@ -11236,7 +18237,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="209" spans="13:18">
+    <row r="209" spans="5:18">
+      <c r="E209" s="2"/>
       <c r="M209" s="2">
         <v>0.83929398148148149</v>
       </c>
@@ -11256,7 +18258,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="210" spans="13:18">
+    <row r="210" spans="5:18">
+      <c r="E210" s="2"/>
       <c r="M210" s="2">
         <v>0.83929398148148149</v>
       </c>
@@ -11276,7 +18279,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="211" spans="13:18">
+    <row r="211" spans="5:18">
+      <c r="E211" s="2"/>
       <c r="M211" s="2">
         <v>0.83930555555555564</v>
       </c>
@@ -11296,7 +18300,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="212" spans="13:18">
+    <row r="212" spans="5:18">
+      <c r="E212" s="2"/>
       <c r="M212" s="2">
         <v>0.83930555555555564</v>
       </c>
@@ -11316,7 +18321,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="213" spans="13:18">
+    <row r="213" spans="5:18">
+      <c r="E213" s="2"/>
       <c r="M213" s="2">
         <v>0.83931712962962957</v>
       </c>
@@ -11336,7 +18342,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="214" spans="13:18">
+    <row r="214" spans="5:18">
+      <c r="E214" s="2"/>
       <c r="M214" s="2">
         <v>0.83931712962962957</v>
       </c>
@@ -11356,7 +18363,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="215" spans="13:18">
+    <row r="215" spans="5:18">
+      <c r="E215" s="2"/>
       <c r="M215" s="2">
         <v>0.83932870370370372</v>
       </c>
@@ -11376,7 +18384,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="216" spans="13:18">
+    <row r="216" spans="5:18">
+      <c r="E216" s="2"/>
       <c r="M216" s="2">
         <v>0.83932870370370372</v>
       </c>
@@ -11396,7 +18405,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="217" spans="13:18">
+    <row r="217" spans="5:18">
+      <c r="E217" s="2"/>
       <c r="M217" s="2">
         <v>0.83934027777777775</v>
       </c>
@@ -11416,7 +18426,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="218" spans="13:18">
+    <row r="218" spans="5:18">
       <c r="M218" s="2">
         <v>0.83934027777777775</v>
       </c>
@@ -11436,7 +18446,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="219" spans="13:18">
+    <row r="219" spans="5:18">
+      <c r="E219" s="2"/>
       <c r="M219" s="2">
         <v>0.8393518518518519</v>
       </c>
@@ -11456,7 +18467,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="220" spans="13:18">
+    <row r="220" spans="5:18">
+      <c r="E220" s="2"/>
       <c r="M220" s="2">
         <v>0.8393518518518519</v>
       </c>
@@ -11476,7 +18488,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="221" spans="13:18">
+    <row r="221" spans="5:18">
+      <c r="E221" s="2"/>
       <c r="M221" s="2">
         <v>0.83936342592592583</v>
       </c>
@@ -11496,7 +18509,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="222" spans="13:18">
+    <row r="222" spans="5:18">
+      <c r="E222" s="2"/>
       <c r="M222" s="2">
         <v>0.83936342592592583</v>
       </c>
@@ -11516,7 +18530,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="223" spans="13:18">
+    <row r="223" spans="5:18">
+      <c r="E223" s="2"/>
       <c r="M223" s="2">
         <v>0.83937499999999998</v>
       </c>
@@ -11536,7 +18551,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="224" spans="13:18">
+    <row r="224" spans="5:18">
+      <c r="E224" s="2"/>
       <c r="M224" s="2">
         <v>0.83937499999999998</v>
       </c>
@@ -11556,7 +18572,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="225" spans="13:18">
+    <row r="225" spans="5:18">
+      <c r="E225" s="2"/>
       <c r="M225" s="2">
         <v>0.83938657407407413</v>
       </c>
@@ -11576,7 +18593,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="226" spans="13:18">
+    <row r="226" spans="5:18">
+      <c r="E226" s="2"/>
       <c r="M226" s="2">
         <v>0.83938657407407413</v>
       </c>
@@ -11596,7 +18614,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="227" spans="13:18">
+    <row r="227" spans="5:18">
+      <c r="E227" s="2"/>
       <c r="M227" s="2">
         <v>0.83939814814814817</v>
       </c>
@@ -11616,7 +18635,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="228" spans="13:18">
+    <row r="228" spans="5:18">
+      <c r="E228" s="2"/>
       <c r="M228" s="2">
         <v>0.83939814814814817</v>
       </c>
@@ -11636,7 +18656,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="229" spans="13:18">
+    <row r="229" spans="5:18">
+      <c r="E229" s="2"/>
       <c r="M229" s="2">
         <v>0.83940972222222221</v>
       </c>
@@ -11656,7 +18677,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="230" spans="13:18">
+    <row r="230" spans="5:18">
+      <c r="E230" s="2"/>
       <c r="M230" s="2">
         <v>0.83940972222222221</v>
       </c>
@@ -11676,7 +18698,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="231" spans="13:18">
+    <row r="231" spans="5:18">
+      <c r="E231" s="2"/>
       <c r="M231" s="2">
         <v>0.83942129629629625</v>
       </c>
@@ -11696,7 +18719,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="232" spans="13:18">
+    <row r="232" spans="5:18">
+      <c r="E232" s="2"/>
       <c r="M232" s="2">
         <v>0.83942129629629625</v>
       </c>
@@ -11716,7 +18740,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="233" spans="13:18">
+    <row r="233" spans="5:18">
+      <c r="E233" s="2"/>
       <c r="M233" s="2">
         <v>0.8394328703703704</v>
       </c>
@@ -11736,7 +18761,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="234" spans="13:18">
+    <row r="234" spans="5:18">
+      <c r="E234" s="2"/>
       <c r="M234" s="2">
         <v>0.8394328703703704</v>
       </c>
@@ -11756,7 +18782,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="235" spans="13:18">
+    <row r="235" spans="5:18">
+      <c r="E235" s="2"/>
       <c r="M235" s="2">
         <v>0.83944444444444455</v>
       </c>
@@ -11776,7 +18803,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="236" spans="13:18">
+    <row r="236" spans="5:18">
+      <c r="E236" s="2"/>
       <c r="M236" s="2">
         <v>0.83944444444444455</v>
       </c>
@@ -11796,7 +18824,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="237" spans="13:18">
+    <row r="237" spans="5:18">
+      <c r="E237" s="2"/>
       <c r="M237" s="2">
         <v>0.83945601851851848</v>
       </c>
@@ -11816,7 +18845,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="238" spans="13:18">
+    <row r="238" spans="5:18">
+      <c r="E238" s="2"/>
       <c r="M238" s="2">
         <v>0.83945601851851848</v>
       </c>
@@ -11836,7 +18866,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="239" spans="13:18">
+    <row r="239" spans="5:18">
+      <c r="E239" s="2"/>
       <c r="M239" s="2">
         <v>0.83946759259259263</v>
       </c>
@@ -11856,7 +18887,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="240" spans="13:18">
+    <row r="240" spans="5:18">
+      <c r="E240" s="2"/>
       <c r="M240" s="2">
         <v>0.83946759259259263</v>
       </c>
@@ -11876,7 +18908,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="241" spans="13:18">
+    <row r="241" spans="5:18">
+      <c r="E241" s="2"/>
       <c r="M241" s="2">
         <v>0.83947916666666667</v>
       </c>
@@ -11896,7 +18929,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="242" spans="13:18">
+    <row r="242" spans="5:18">
+      <c r="E242" s="2"/>
       <c r="M242" s="2">
         <v>0.83947916666666667</v>
       </c>
@@ -11916,7 +18950,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="243" spans="13:18">
+    <row r="243" spans="5:18">
+      <c r="E243" s="2"/>
       <c r="M243" s="2">
         <v>0.8394907407407407</v>
       </c>
@@ -11936,7 +18971,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="244" spans="13:18">
+    <row r="244" spans="5:18">
+      <c r="E244" s="2"/>
       <c r="M244" s="2">
         <v>0.8394907407407407</v>
       </c>
@@ -11956,7 +18992,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="245" spans="13:18">
+    <row r="245" spans="5:18">
+      <c r="E245" s="2"/>
       <c r="M245" s="2">
         <v>0.83951388888888889</v>
       </c>
@@ -11976,7 +19013,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="246" spans="13:18">
+    <row r="246" spans="5:18">
+      <c r="E246" s="2"/>
       <c r="M246" s="2">
         <v>0.83951388888888889</v>
       </c>
@@ -11996,7 +19034,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="247" spans="13:18">
+    <row r="247" spans="5:18">
+      <c r="E247" s="2"/>
       <c r="M247" s="2">
         <v>0.83952546296296304</v>
       </c>
@@ -12016,7 +19055,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="13:18">
+    <row r="248" spans="5:18">
+      <c r="E248" s="2"/>
       <c r="M248" s="2">
         <v>0.83952546296296304</v>
       </c>
@@ -12036,7 +19076,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="249" spans="13:18">
+    <row r="249" spans="5:18">
+      <c r="E249" s="2"/>
       <c r="M249" s="2">
         <v>0.83953703703703697</v>
       </c>
@@ -12056,7 +19097,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="250" spans="13:18">
+    <row r="250" spans="5:18">
+      <c r="E250" s="2"/>
       <c r="M250" s="2">
         <v>0.83953703703703697</v>
       </c>
@@ -12076,7 +19118,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="251" spans="13:18">
+    <row r="251" spans="5:18">
+      <c r="E251" s="2"/>
       <c r="M251" s="2">
         <v>0.83954861111111112</v>
       </c>
@@ -12096,7 +19139,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="252" spans="13:18">
+    <row r="252" spans="5:18">
+      <c r="E252" s="2"/>
       <c r="M252" s="2">
         <v>0.83954861111111112</v>
       </c>
@@ -12116,7 +19160,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="253" spans="13:18">
+    <row r="253" spans="5:18">
+      <c r="E253" s="2"/>
       <c r="M253" s="2">
         <v>0.83956018518518516</v>
       </c>
@@ -12136,7 +19181,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="254" spans="13:18">
+    <row r="254" spans="5:18">
+      <c r="E254" s="2"/>
       <c r="M254" s="2">
         <v>0.83956018518518516</v>
       </c>
@@ -12156,7 +19202,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="255" spans="13:18">
+    <row r="255" spans="5:18">
+      <c r="E255" s="2"/>
       <c r="M255" s="2">
         <v>0.83957175925925931</v>
       </c>
@@ -12176,7 +19223,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="256" spans="13:18">
+    <row r="256" spans="5:18">
+      <c r="E256" s="2"/>
       <c r="M256" s="2">
         <v>0.83957175925925931</v>
       </c>
@@ -12196,7 +19244,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="257" spans="13:18">
+    <row r="257" spans="5:18">
+      <c r="E257" s="2"/>
       <c r="M257" s="2">
         <v>0.83958333333333324</v>
       </c>
@@ -12216,7 +19265,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="258" spans="13:18">
+    <row r="258" spans="5:18">
+      <c r="E258" s="2"/>
       <c r="M258" s="2">
         <v>0.83958333333333324</v>
       </c>
@@ -12236,7 +19286,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="259" spans="13:18">
+    <row r="259" spans="5:18">
+      <c r="E259" s="2"/>
       <c r="M259" s="2">
         <v>0.83959490740740739</v>
       </c>
@@ -12256,7 +19307,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="260" spans="13:18">
+    <row r="260" spans="5:18">
+      <c r="E260" s="2"/>
       <c r="M260" s="2">
         <v>0.83959490740740739</v>
       </c>
@@ -12276,7 +19328,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="261" spans="13:18">
+    <row r="261" spans="5:18">
+      <c r="E261" s="2"/>
       <c r="M261" s="2">
         <v>0.83960648148148154</v>
       </c>
@@ -12296,7 +19349,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="262" spans="13:18">
+    <row r="262" spans="5:18">
+      <c r="E262" s="2"/>
       <c r="M262" s="2">
         <v>0.83960648148148154</v>
       </c>
@@ -12316,7 +19370,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="263" spans="13:18">
+    <row r="263" spans="5:18">
+      <c r="E263" s="2"/>
       <c r="M263" s="2">
         <v>0.83961805555555558</v>
       </c>
@@ -12336,7 +19391,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="264" spans="13:18">
+    <row r="264" spans="5:18">
+      <c r="E264" s="2"/>
       <c r="M264" s="2">
         <v>0.83961805555555558</v>
       </c>
@@ -12356,7 +19412,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="265" spans="13:18">
+    <row r="265" spans="5:18">
+      <c r="E265" s="2"/>
       <c r="M265" s="2">
         <v>0.83962962962962961</v>
       </c>
@@ -12376,7 +19433,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="266" spans="13:18">
+    <row r="266" spans="5:18">
+      <c r="E266" s="2"/>
       <c r="M266" s="2">
         <v>0.83962962962962961</v>
       </c>
@@ -12396,7 +19454,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="267" spans="13:18">
+    <row r="267" spans="5:18">
+      <c r="E267" s="2"/>
       <c r="M267" s="2">
         <v>0.83964120370370365</v>
       </c>
@@ -12416,7 +19475,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="268" spans="13:18">
+    <row r="268" spans="5:18">
+      <c r="E268" s="2"/>
       <c r="M268" s="2">
         <v>0.83964120370370365</v>
       </c>
@@ -12436,7 +19496,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="269" spans="13:18">
+    <row r="269" spans="5:18">
+      <c r="E269" s="2"/>
       <c r="M269" s="2">
         <v>0.8396527777777778</v>
       </c>
@@ -12456,7 +19517,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="270" spans="13:18">
+    <row r="270" spans="5:18">
+      <c r="E270" s="2"/>
       <c r="M270" s="2">
         <v>0.8396527777777778</v>
       </c>
@@ -12476,7 +19538,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="271" spans="13:18">
+    <row r="271" spans="5:18">
+      <c r="E271" s="2"/>
       <c r="M271" s="2">
         <v>0.83966435185185195</v>
       </c>
@@ -12496,7 +19559,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="272" spans="13:18">
+    <row r="272" spans="5:18">
+      <c r="E272" s="2"/>
       <c r="M272" s="2">
         <v>0.83966435185185195</v>
       </c>
@@ -12516,7 +19580,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="273" spans="13:18">
+    <row r="273" spans="5:18">
+      <c r="E273" s="2"/>
       <c r="M273" s="2">
         <v>0.83967592592592588</v>
       </c>
@@ -12536,7 +19601,8 @@
         <v>928</v>
       </c>
     </row>
-    <row r="274" spans="13:18">
+    <row r="274" spans="5:18">
+      <c r="E274" s="2"/>
       <c r="M274" s="2">
         <v>0.83967592592592588</v>
       </c>
@@ -12555,6 +19621,57 @@
       <c r="R274">
         <v>928</v>
       </c>
+    </row>
+    <row r="275" spans="5:18">
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="5:18">
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="5:18">
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="5:18">
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="5:18">
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280" spans="5:18">
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281" spans="5:18">
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282" spans="5:18">
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283" spans="5:18">
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="5:18">
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="5:18">
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="5:18">
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="5:18">
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="5:18">
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
